--- a/back-end/Requests-and-Responses.xlsx
+++ b/back-end/Requests-and-Responses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Ambiente de Trabalho\MESTRADO\2 semestre\Aplicações em Web\aw-project\back-end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A4B292-5927-4159-BF0A-2BD00200F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA90AA0-8619-4D45-9683-7A2BF37AD0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>BE Service</t>
   </si>
@@ -111,22 +111,28 @@
     <t>user/userID</t>
   </si>
   <si>
-    <t>(lista?) News</t>
-  </si>
-  <si>
-    <t>(Lista?)Market</t>
-  </si>
-  <si>
-    <t>(lista)Products</t>
-  </si>
-  <si>
-    <t>(Lista)Feedback</t>
-  </si>
-  <si>
-    <t>(Lista)Product</t>
-  </si>
-  <si>
     <t>Categories</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>appconfig</t>
+  </si>
+  <si>
+    <t>appConfig</t>
+  </si>
+  <si>
+    <t>MarketList</t>
+  </si>
+  <si>
+    <t>NewsList</t>
+  </si>
+  <si>
+    <t>ProductList</t>
+  </si>
+  <si>
+    <t>FeedbackList</t>
   </si>
 </sst>
 </file>
@@ -170,14 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,8 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -210,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,23 +504,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40E9603-68F7-4D15-97A9-F1A4E612FDFE}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -531,210 +529,230 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/back-end/Requests-and-Responses.xlsx
+++ b/back-end/Requests-and-Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guicu\Documents\Universidade\Mestrado\2Semestre\Aplicações na web\aw-project\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA90AA0-8619-4D45-9683-7A2BF37AD0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF656D-1F07-4AFE-9BAB-FF50E36790FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7339BE56-F3CD-4EA2-BB4E-FEE8F77C3A35}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -507,19 +507,19 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="D4" t="s">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" t="s">
         <v>8</v>
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="D8" t="s">
         <v>28</v>
@@ -614,7 +614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" t="s">
         <v>34</v>
@@ -626,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -654,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -668,7 +668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>16</v>
@@ -680,7 +680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
@@ -694,7 +694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="D15" t="s">
         <v>34</v>
@@ -706,7 +706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
@@ -734,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" t="s">
         <v>31</v>
